--- a/biology/Neurosciences/Cerveau_et_méditation___dialogue_entre_le_bouddhisme_et_les_neurosciences/Cerveau_et_méditation___dialogue_entre_le_bouddhisme_et_les_neurosciences.xlsx
+++ b/biology/Neurosciences/Cerveau_et_méditation___dialogue_entre_le_bouddhisme_et_les_neurosciences/Cerveau_et_méditation___dialogue_entre_le_bouddhisme_et_les_neurosciences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cerveau_et_m%C3%A9ditation_:_dialogue_entre_le_bouddhisme_et_les_neurosciences</t>
+          <t>Cerveau_et_méditation_:_dialogue_entre_le_bouddhisme_et_les_neurosciences</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cerveau et méditation : dialogue entre le bouddhisme et les neurosciences est un livre du moine de l'école nyingma du bouddhisme tibétain Matthieu Ricard et de Wolf Singer[1], neurobiologiste et directeur émérite de l'Institut Max-Planck pour la recherche sur le cerveau. L'ouvrage, écrit en anglais sous le titre Beyond the Self: Conversations between Buddhism and Neuroscience[2] a été traduit en français[3] par Carisse Busquet. Christophe André en a écrit la préface. C'est le fruit d'un dialogue qui se déroula durant 8 années[4]. Une conférence s'est tenue au Grand Rex lors de la sortie de l'ouvrage le 11 janvier 2017[5].
+Cerveau et méditation : dialogue entre le bouddhisme et les neurosciences est un livre du moine de l'école nyingma du bouddhisme tibétain Matthieu Ricard et de Wolf Singer, neurobiologiste et directeur émérite de l'Institut Max-Planck pour la recherche sur le cerveau. L'ouvrage, écrit en anglais sous le titre Beyond the Self: Conversations between Buddhism and Neuroscience a été traduit en français par Carisse Busquet. Christophe André en a écrit la préface. C'est le fruit d'un dialogue qui se déroula durant 8 années. Une conférence s'est tenue au Grand Rex lors de la sortie de l'ouvrage le 11 janvier 2017.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cerveau_et_m%C3%A9ditation_:_dialogue_entre_le_bouddhisme_et_les_neurosciences</t>
+          <t>Cerveau_et_méditation_:_dialogue_entre_le_bouddhisme_et_les_neurosciences</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Elena Sender, MÉDITATION. Comment devenir un athlète du cerveau en 5 points ?, Sciences et Avenir, 7 décembre 2017
